--- a/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
   <si>
     <t>Asignatura</t>
   </si>
@@ -783,6 +778,9 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Diaporama F1</t>
   </si>
 </sst>
 </file>
@@ -829,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,12 +897,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1047,89 +1039,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1146,19 +1063,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,10 +1082,99 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,7 +1236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1274,7 +1271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1485,128 +1482,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="41" style="42" customWidth="1"/>
-    <col min="5" max="5" width="31" style="42" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="42" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="11" style="41" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="42" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="42" customWidth="1"/>
-    <col min="15" max="15" width="81" style="41" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="66" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="41" customWidth="1"/>
-    <col min="18" max="18" width="23" style="42" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="42" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="42" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="42" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" style="41"/>
-    <col min="25" max="16384" width="11.42578125" style="42"/>
+    <col min="1" max="1" width="16.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="41" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="73.5703125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="37" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="23" style="18" customWidth="1"/>
+    <col min="19" max="19" width="35" style="18" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="18" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" style="17"/>
+    <col min="25" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:24" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1619,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="64" t="s">
         <v>124</v>
       </c>
       <c r="H3" s="11">
@@ -1630,7 +1628,7 @@
       <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="19" t="s">
         <v>150</v>
       </c>
       <c r="K3" s="13" t="s">
@@ -1641,30 +1639,30 @@
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1679,18 +1677,18 @@
       <c r="D4" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="27">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="28" t="s">
         <v>151</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -1703,30 +1701,30 @@
       <c r="N4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="24">
         <v>6</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1741,9 +1739,9 @@
       <c r="D5" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="65" t="s">
         <v>126</v>
       </c>
       <c r="H5" s="11">
@@ -1752,7 +1750,7 @@
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="29" t="s">
         <v>152</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1765,32 +1763,32 @@
       <c r="N5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="24">
         <v>6</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="U5" s="51" t="s">
+      <c r="U5" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-    </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1803,18 +1801,18 @@
       <c r="D6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="27">
         <v>4</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="29" t="s">
         <v>153</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1824,31 +1822,33 @@
         <v>8</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="45" t="s">
+      <c r="N6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="24">
         <v>6</v>
       </c>
-      <c r="R6" s="48" t="s">
+      <c r="R6" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="U6" s="51" t="s">
+      <c r="U6" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1863,9 +1863,9 @@
       <c r="D7" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="65" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="11">
@@ -1874,7 +1874,7 @@
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="29" t="s">
         <v>154</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1887,32 +1887,32 @@
         <v>55</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="24">
         <v>6</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="R7" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="U7" s="51" t="s">
+      <c r="U7" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-    </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1925,18 +1925,18 @@
       <c r="D8" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="27">
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="29" t="s">
         <v>155</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1947,30 +1947,30 @@
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="55" t="s">
+      <c r="O8" s="20"/>
+      <c r="P8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="48" t="s">
+      <c r="R8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-    </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1983,9 +1983,9 @@
       <c r="D9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="65" t="s">
         <v>130</v>
       </c>
       <c r="H9" s="11">
@@ -1994,7 +1994,7 @@
       <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="29" t="s">
         <v>156</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -2005,30 +2005,30 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="U9" s="51" t="s">
+      <c r="U9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -2043,18 +2043,18 @@
       <c r="D10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="27">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="29" t="s">
         <v>157</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -2067,30 +2067,30 @@
       <c r="N10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="24">
         <v>6</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="R10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="U10" s="51" t="s">
+      <c r="U10" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -2105,9 +2105,9 @@
       <c r="D11" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="65" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="11">
@@ -2116,7 +2116,7 @@
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="29" t="s">
         <v>158</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -2129,32 +2129,32 @@
       <c r="N11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="24">
         <v>6</v>
       </c>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="U11" s="51" t="s">
+      <c r="U11" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-    </row>
-    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2167,20 +2167,20 @@
       <c r="D12" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="27">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="29" t="s">
         <v>159</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -2191,30 +2191,30 @@
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="U12" s="51" t="s">
+      <c r="U12" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -2226,12 +2226,12 @@
       <c r="C13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="65" t="s">
         <v>134</v>
       </c>
       <c r="H13" s="11">
@@ -2240,7 +2240,7 @@
       <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="29" t="s">
         <v>160</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -2253,30 +2253,30 @@
         <v>53</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="24">
         <v>6</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="50" t="s">
+      <c r="T13" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="U13" s="51" t="s">
+      <c r="U13" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2288,21 +2288,21 @@
       <c r="C14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="27">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="29" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -2315,30 +2315,30 @@
       <c r="N14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="24">
         <v>6</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="U14" s="51" t="s">
+      <c r="U14" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2350,12 +2350,12 @@
       <c r="C15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="65" t="s">
         <v>136</v>
       </c>
       <c r="H15" s="11">
@@ -2364,7 +2364,7 @@
       <c r="I15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="29" t="s">
         <v>162</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -2377,30 +2377,30 @@
       <c r="N15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="24">
         <v>6</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="U15" s="51" t="s">
+      <c r="U15" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -2412,21 +2412,21 @@
       <c r="C16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="27">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="29" t="s">
         <v>163</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2439,30 +2439,30 @@
       <c r="N16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="24">
         <v>6</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="U16" s="51" t="s">
+      <c r="U16" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -2474,12 +2474,12 @@
       <c r="C17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="65" t="s">
         <v>138</v>
       </c>
       <c r="H17" s="11">
@@ -2488,7 +2488,7 @@
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="29" t="s">
         <v>164</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -2501,30 +2501,30 @@
       <c r="N17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="P17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="24">
         <v>6</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="U17" s="51" t="s">
+      <c r="U17" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -2536,21 +2536,21 @@
       <c r="C18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="27">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="29" t="s">
         <v>165</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -2563,30 +2563,30 @@
       <c r="N18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="24">
         <v>6</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="R18" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="U18" s="51" t="s">
+      <c r="U18" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -2598,12 +2598,12 @@
       <c r="C19" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="65" t="s">
         <v>140</v>
       </c>
       <c r="H19" s="11">
@@ -2612,7 +2612,7 @@
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="29" t="s">
         <v>166</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -2625,30 +2625,30 @@
       <c r="N19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O19" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="24">
         <v>6</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="U19" s="51" t="s">
+      <c r="U19" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2660,21 +2660,21 @@
       <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="27">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="29" t="s">
         <v>167</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2687,30 +2687,30 @@
       <c r="N20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="24">
         <v>6</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T20" s="50" t="s">
+      <c r="T20" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="U20" s="51" t="s">
+      <c r="U20" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2722,12 +2722,12 @@
       <c r="C21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="65" t="s">
         <v>142</v>
       </c>
       <c r="H21" s="11">
@@ -2736,7 +2736,7 @@
       <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="29" t="s">
         <v>168</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2749,30 +2749,30 @@
       <c r="N21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="55" t="s">
+      <c r="P21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="24">
         <v>6</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="U21" s="51" t="s">
+      <c r="U21" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -2784,23 +2784,23 @@
       <c r="C22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="27">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="29" t="s">
         <v>169</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -2813,30 +2813,30 @@
       <c r="N22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="24">
         <v>6</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S22" s="49" t="s">
+      <c r="S22" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="U22" s="51" t="s">
+      <c r="U22" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -2848,12 +2848,12 @@
       <c r="C23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="65" t="s">
         <v>144</v>
       </c>
       <c r="H23" s="11">
@@ -2862,7 +2862,7 @@
       <c r="I23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="29" t="s">
         <v>170</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -2875,30 +2875,30 @@
         <v>54</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="P23" s="55" t="s">
+      <c r="P23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="24">
         <v>6</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="T23" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="U23" s="51" t="s">
+      <c r="U23" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -2910,21 +2910,21 @@
       <c r="C24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="27">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="29" t="s">
         <v>171</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -2937,30 +2937,30 @@
       <c r="N24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="45" t="s">
+      <c r="O24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="55" t="s">
+      <c r="P24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="24">
         <v>6</v>
       </c>
-      <c r="R24" s="48" t="s">
+      <c r="R24" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S24" s="49" t="s">
+      <c r="S24" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="U24" s="51" t="s">
+      <c r="U24" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -2972,12 +2972,12 @@
       <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="65" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="11">
@@ -2986,7 +2986,7 @@
       <c r="I25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="29" t="s">
         <v>172</v>
       </c>
       <c r="K25" s="6" t="s">
@@ -2999,30 +2999,30 @@
       <c r="N25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="P25" s="55" t="s">
+      <c r="P25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="24">
         <v>6</v>
       </c>
-      <c r="R25" s="48" t="s">
+      <c r="R25" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T25" s="50" t="s">
+      <c r="T25" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="U25" s="51" t="s">
+      <c r="U25" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -3034,21 +3034,21 @@
       <c r="C26" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="27">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="29" t="s">
         <v>173</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -3061,30 +3061,30 @@
       <c r="N26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="P26" s="55" t="s">
+      <c r="P26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="24">
         <v>6</v>
       </c>
-      <c r="R26" s="48" t="s">
+      <c r="R26" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T26" s="50" t="s">
+      <c r="T26" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="U26" s="51" t="s">
+      <c r="U26" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -3096,14 +3096,14 @@
       <c r="C27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="65" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="11">
@@ -3112,7 +3112,7 @@
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="29" t="s">
         <v>174</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -3125,30 +3125,30 @@
       <c r="N27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="P27" s="55" t="s">
+      <c r="P27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="24">
         <v>6</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="U27" s="51" t="s">
+      <c r="U27" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -3160,21 +3160,21 @@
       <c r="C28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="27">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="29" t="s">
         <v>175</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -3187,30 +3187,30 @@
       <c r="N28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="24">
         <v>6</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="S28" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T28" s="50" t="s">
+      <c r="T28" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="U28" s="51" t="s">
+      <c r="U28" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -3222,21 +3222,21 @@
       <c r="C29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="65" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="29" t="s">
         <v>176</v>
       </c>
       <c r="K29" s="6" t="s">
@@ -3247,20 +3247,20 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="P29" s="55" t="s">
+      <c r="P29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -3272,23 +3272,23 @@
       <c r="C30" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="27">
         <v>28</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="29" t="s">
         <v>177</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -3301,30 +3301,30 @@
       <c r="N30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="55" t="s">
+      <c r="P30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="24">
         <v>6</v>
       </c>
-      <c r="R30" s="48" t="s">
+      <c r="R30" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T30" s="50" t="s">
+      <c r="T30" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="U30" s="51" t="s">
+      <c r="U30" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -3336,19 +3336,19 @@
       <c r="C31" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="11">
         <v>29</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="57"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5" t="s">
         <v>8</v>
@@ -3357,951 +3357,951 @@
       <c r="N31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="59"/>
-      <c r="P31" s="55" t="s">
+      <c r="O31" s="31"/>
+      <c r="P31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="24">
         <v>6</v>
       </c>
-      <c r="R31" s="48" t="s">
+      <c r="R31" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T31" s="50" t="s">
+      <c r="T31" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="U31" s="51" t="s">
+      <c r="U31" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="53"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="57"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="61"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="33"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="53"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="57"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="61"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="33"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="53"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="65"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="61"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="33"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="53"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="65"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="61"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="33"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="53"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="65"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="61"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="33"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="53"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="65"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="61"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="33"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="53"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="65"/>
+      <c r="J38" s="36"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="61"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="33"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="53"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="65"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="61"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="33"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="53"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="65"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="61"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="33"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="53"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="65"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="61"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="33"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="53"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="65"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="61"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="33"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="53"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="65"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="61"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="33"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="53"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="65"/>
+      <c r="J44" s="36"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="61"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="33"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="53"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="65"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="61"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="33"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="53"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="65"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="61"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="33"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="53"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="65"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="61"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="33"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="53"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="65"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="61"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="33"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="53"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="65"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="61"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="33"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="53"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="65"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="61"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="33"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="53"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="65"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="61"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="33"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="53"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="65"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="61"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="33"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="53"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="65"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="61"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="33"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
     </row>
     <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="53"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="65"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="61"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="33"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="53"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="65"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="61"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="33"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="53"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="65"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="61"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="33"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="53"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="65"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="61"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="33"/>
     </row>
     <row r="58" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="53"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="65"/>
+      <c r="J58" s="36"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="61"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="53"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="65"/>
+      <c r="J59" s="36"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="61"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="33"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="53"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="65"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="61"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="53"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="65"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="61"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="33"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="53"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="65"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="61"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="33"/>
     </row>
     <row r="63" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="53"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="65"/>
+      <c r="J63" s="36"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="61"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="33"/>
     </row>
     <row r="64" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="53"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="65"/>
+      <c r="J64" s="36"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="61"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="33"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="53"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="65"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="63"/>
-      <c r="U65" s="61"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="33"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="53"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="65"/>
+      <c r="J66" s="36"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="63"/>
-      <c r="U66" s="61"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="53"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="65"/>
+      <c r="J67" s="36"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="63"/>
-      <c r="U67" s="61"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="53"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="65"/>
+      <c r="J68" s="36"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="63"/>
-      <c r="U68" s="61"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="33"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="53"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="65"/>
+      <c r="J69" s="36"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="63"/>
-      <c r="U69" s="61"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="33"/>
     </row>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4317,187 +4317,187 @@
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="18" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4665,10 +4665,13 @@
     <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4683,12 +4686,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V30">

--- a/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="259">
   <si>
     <t>Asignatura</t>
   </si>
@@ -781,6 +786,24 @@
   </si>
   <si>
     <t>Diaporama F1</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>Johanna Montejo</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Johanna Vera</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
+  </si>
+  <si>
+    <t>Adriana Lasprilla</t>
   </si>
 </sst>
 </file>
@@ -1086,16 +1109,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,50 +1187,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,7 +1259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,7 +1294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O2"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1518,7 @@
     <col min="4" max="4" width="41" style="18" customWidth="1"/>
     <col min="5" max="5" width="31" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="42" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="17" customWidth="1"/>
     <col min="9" max="9" width="11" style="17" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="18" customWidth="1"/>
@@ -1503,106 +1526,107 @@
     <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" style="18" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="73.5703125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="37" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="23" style="18" customWidth="1"/>
-    <col min="19" max="19" width="35" style="18" customWidth="1"/>
+    <col min="15" max="15" width="73.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="37" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="18" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="35" style="18" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" style="18" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="18" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" style="17"/>
+    <col min="22" max="22" width="15.7109375" style="17" customWidth="1"/>
+    <col min="23" max="24" width="11.42578125" style="17"/>
     <col min="25" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="15" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1619,7 +1643,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="39" t="s">
         <v>124</v>
       </c>
       <c r="H3" s="11">
@@ -1654,13 +1678,15 @@
       <c r="S3" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="38" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V3" s="16"/>
+      <c r="V3" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
     </row>
@@ -1679,7 +1705,7 @@
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="40" t="s">
         <v>125</v>
       </c>
       <c r="H4" s="27">
@@ -1716,13 +1742,15 @@
       <c r="S4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="T4" s="38" t="s">
         <v>220</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
@@ -1741,7 +1769,7 @@
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="40" t="s">
         <v>126</v>
       </c>
       <c r="H5" s="11">
@@ -1778,13 +1806,15 @@
       <c r="S5" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T5" s="61" t="s">
+      <c r="T5" s="38" t="s">
         <v>222</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V5" s="16"/>
+      <c r="V5" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
@@ -1803,7 +1833,7 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="40" t="s">
         <v>127</v>
       </c>
       <c r="H6" s="27">
@@ -1840,13 +1870,15 @@
       <c r="S6" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="61" t="s">
+      <c r="T6" s="38" t="s">
         <v>224</v>
       </c>
       <c r="U6" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
@@ -1865,7 +1897,7 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="40" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="11">
@@ -1902,13 +1934,15 @@
       <c r="S7" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="38" t="s">
         <v>228</v>
       </c>
       <c r="U7" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V7" s="16"/>
+      <c r="V7" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
@@ -1927,7 +1961,7 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="40" t="s">
         <v>129</v>
       </c>
       <c r="H8" s="27">
@@ -1960,13 +1994,15 @@
       <c r="S8" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="38" t="s">
         <v>129</v>
       </c>
       <c r="U8" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V8" s="16"/>
+      <c r="V8" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
     </row>
@@ -1985,7 +2021,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="40" t="s">
         <v>130</v>
       </c>
       <c r="H9" s="11">
@@ -2020,13 +2056,15 @@
       <c r="S9" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T9" s="61" t="s">
+      <c r="T9" s="38" t="s">
         <v>230</v>
       </c>
       <c r="U9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
     </row>
@@ -2045,7 +2083,7 @@
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H10" s="27">
@@ -2082,13 +2120,15 @@
       <c r="S10" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="38" t="s">
         <v>231</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
@@ -2107,7 +2147,7 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="11">
@@ -2144,13 +2184,15 @@
       <c r="S11" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="38" t="s">
         <v>232</v>
       </c>
       <c r="U11" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
@@ -2171,7 +2213,7 @@
         <v>180</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H12" s="27">
@@ -2206,13 +2248,15 @@
       <c r="S12" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="T12" s="61" t="s">
+      <c r="T12" s="38" t="s">
         <v>233</v>
       </c>
       <c r="U12" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
@@ -2231,7 +2275,7 @@
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="40" t="s">
         <v>134</v>
       </c>
       <c r="H13" s="11">
@@ -2268,13 +2312,15 @@
       <c r="S13" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="61" t="s">
+      <c r="T13" s="38" t="s">
         <v>234</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
@@ -2293,7 +2339,7 @@
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="40" t="s">
         <v>135</v>
       </c>
       <c r="H14" s="27">
@@ -2330,13 +2376,15 @@
       <c r="S14" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T14" s="61" t="s">
+      <c r="T14" s="38" t="s">
         <v>235</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
     </row>
@@ -2355,7 +2403,7 @@
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="40" t="s">
         <v>136</v>
       </c>
       <c r="H15" s="11">
@@ -2392,13 +2440,15 @@
       <c r="S15" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="T15" s="38" t="s">
         <v>236</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
@@ -2417,7 +2467,7 @@
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="40" t="s">
         <v>137</v>
       </c>
       <c r="H16" s="27">
@@ -2454,13 +2504,15 @@
       <c r="S16" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T16" s="61" t="s">
+      <c r="T16" s="38" t="s">
         <v>237</v>
       </c>
       <c r="U16" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
@@ -2479,7 +2531,7 @@
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="40" t="s">
         <v>138</v>
       </c>
       <c r="H17" s="11">
@@ -2516,13 +2568,15 @@
       <c r="S17" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T17" s="61" t="s">
+      <c r="T17" s="38" t="s">
         <v>238</v>
       </c>
       <c r="U17" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
@@ -2541,7 +2595,7 @@
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="40" t="s">
         <v>139</v>
       </c>
       <c r="H18" s="27">
@@ -2578,13 +2632,15 @@
       <c r="S18" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="T18" s="38" t="s">
         <v>239</v>
       </c>
       <c r="U18" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
     </row>
@@ -2603,7 +2659,7 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="40" t="s">
         <v>140</v>
       </c>
       <c r="H19" s="11">
@@ -2640,13 +2696,15 @@
       <c r="S19" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T19" s="61" t="s">
+      <c r="T19" s="38" t="s">
         <v>240</v>
       </c>
       <c r="U19" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
     </row>
@@ -2665,7 +2723,7 @@
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="40" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="27">
@@ -2702,13 +2760,15 @@
       <c r="S20" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T20" s="61" t="s">
+      <c r="T20" s="38" t="s">
         <v>241</v>
       </c>
       <c r="U20" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
     </row>
@@ -2727,7 +2787,7 @@
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="40" t="s">
         <v>142</v>
       </c>
       <c r="H21" s="11">
@@ -2764,13 +2824,15 @@
       <c r="S21" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="38" t="s">
         <v>242</v>
       </c>
       <c r="U21" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
     </row>
@@ -2791,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="F22" s="26"/>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="40" t="s">
         <v>143</v>
       </c>
       <c r="H22" s="27">
@@ -2828,13 +2890,15 @@
       <c r="S22" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T22" s="61" t="s">
+      <c r="T22" s="38" t="s">
         <v>243</v>
       </c>
       <c r="U22" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
     </row>
@@ -2853,7 +2917,7 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="40" t="s">
         <v>144</v>
       </c>
       <c r="H23" s="11">
@@ -2890,13 +2954,15 @@
       <c r="S23" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="61" t="s">
+      <c r="T23" s="38" t="s">
         <v>244</v>
       </c>
       <c r="U23" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
     </row>
@@ -2915,7 +2981,7 @@
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="40" t="s">
         <v>145</v>
       </c>
       <c r="H24" s="27">
@@ -2952,13 +3018,15 @@
       <c r="S24" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T24" s="61" t="s">
+      <c r="T24" s="38" t="s">
         <v>245</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
     </row>
@@ -2977,7 +3045,7 @@
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="40" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="11">
@@ -3014,13 +3082,15 @@
       <c r="S25" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T25" s="61" t="s">
+      <c r="T25" s="38" t="s">
         <v>246</v>
       </c>
       <c r="U25" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
@@ -3039,7 +3109,7 @@
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="40" t="s">
         <v>178</v>
       </c>
       <c r="H26" s="27">
@@ -3076,13 +3146,15 @@
       <c r="S26" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T26" s="61" t="s">
+      <c r="T26" s="38" t="s">
         <v>247</v>
       </c>
       <c r="U26" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V26" s="16"/>
+      <c r="V26" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
     </row>
@@ -3103,7 +3175,7 @@
         <v>180</v>
       </c>
       <c r="F27" s="26"/>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="40" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="11">
@@ -3140,13 +3212,15 @@
       <c r="S27" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T27" s="61" t="s">
+      <c r="T27" s="38" t="s">
         <v>248</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V27" s="16"/>
+      <c r="V27" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
@@ -3165,7 +3239,7 @@
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="40" t="s">
         <v>148</v>
       </c>
       <c r="H28" s="27">
@@ -3202,13 +3276,15 @@
       <c r="S28" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T28" s="61" t="s">
+      <c r="T28" s="38" t="s">
         <v>250</v>
       </c>
       <c r="U28" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="16"/>
+      <c r="V28" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
@@ -3229,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="40" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="11">
@@ -3256,9 +3332,8 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="23"/>
       <c r="S29" s="24"/>
-      <c r="T29" s="61"/>
+      <c r="T29" s="38"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
     </row>
@@ -3279,7 +3354,7 @@
         <v>149</v>
       </c>
       <c r="F30" s="26"/>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="40" t="s">
         <v>149</v>
       </c>
       <c r="H30" s="27">
@@ -3316,13 +3391,15 @@
       <c r="S30" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T30" s="61" t="s">
+      <c r="T30" s="38" t="s">
         <v>249</v>
       </c>
       <c r="U30" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="V30" s="16"/>
+      <c r="V30" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
     </row>
@@ -3341,7 +3418,7 @@
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="65"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="11">
         <v>29</v>
       </c>
@@ -3370,11 +3447,14 @@
       <c r="S31" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="T31" s="61" t="s">
+      <c r="T31" s="38" t="s">
         <v>251</v>
       </c>
       <c r="U31" s="24" t="s">
         <v>221</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
@@ -3386,7 +3466,7 @@
       <c r="D32" s="30"/>
       <c r="E32" s="25"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="65"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="26"/>
       <c r="I32" s="4"/>
       <c r="J32" s="29"/>
@@ -3411,7 +3491,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="66"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="26"/>
       <c r="I33" s="4"/>
       <c r="J33" s="29"/>
@@ -3436,7 +3516,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="25"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="66"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="26"/>
       <c r="I34" s="4"/>
       <c r="J34" s="36"/>
@@ -3461,7 +3541,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="66"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="26"/>
       <c r="I35" s="4"/>
       <c r="J35" s="36"/>
@@ -3486,7 +3566,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="66"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="26"/>
       <c r="I36" s="4"/>
       <c r="J36" s="36"/>
@@ -3511,7 +3591,7 @@
       <c r="D37" s="30"/>
       <c r="E37" s="25"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="66"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="26"/>
       <c r="I37" s="4"/>
       <c r="J37" s="36"/>
@@ -3536,7 +3616,7 @@
       <c r="D38" s="30"/>
       <c r="E38" s="25"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="66"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="26"/>
       <c r="I38" s="4"/>
       <c r="J38" s="36"/>
@@ -3561,7 +3641,7 @@
       <c r="D39" s="30"/>
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="66"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="26"/>
       <c r="I39" s="4"/>
       <c r="J39" s="36"/>
@@ -3586,7 +3666,7 @@
       <c r="D40" s="30"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="66"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="26"/>
       <c r="I40" s="4"/>
       <c r="J40" s="36"/>
@@ -3611,7 +3691,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="66"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="26"/>
       <c r="I41" s="4"/>
       <c r="J41" s="36"/>
@@ -3636,7 +3716,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="66"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="26"/>
       <c r="I42" s="4"/>
       <c r="J42" s="36"/>
@@ -3661,7 +3741,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="66"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="26"/>
       <c r="I43" s="4"/>
       <c r="J43" s="36"/>
@@ -3686,7 +3766,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="66"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="26"/>
       <c r="I44" s="4"/>
       <c r="J44" s="36"/>
@@ -3711,7 +3791,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
-      <c r="G45" s="66"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="26"/>
       <c r="I45" s="4"/>
       <c r="J45" s="36"/>
@@ -3736,7 +3816,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
-      <c r="G46" s="66"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="26"/>
       <c r="I46" s="4"/>
       <c r="J46" s="36"/>
@@ -3761,7 +3841,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="66"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="26"/>
       <c r="I47" s="4"/>
       <c r="J47" s="36"/>
@@ -3786,7 +3866,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="66"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="26"/>
       <c r="I48" s="4"/>
       <c r="J48" s="36"/>
@@ -3811,7 +3891,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="66"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="26"/>
       <c r="I49" s="4"/>
       <c r="J49" s="36"/>
@@ -3836,7 +3916,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26"/>
-      <c r="G50" s="66"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="26"/>
       <c r="I50" s="4"/>
       <c r="J50" s="36"/>
@@ -3861,7 +3941,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="66"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="26"/>
       <c r="I51" s="4"/>
       <c r="J51" s="36"/>
@@ -3886,7 +3966,7 @@
       <c r="D52" s="30"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="66"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="26"/>
       <c r="I52" s="4"/>
       <c r="J52" s="36"/>
@@ -3911,7 +3991,7 @@
       <c r="D53" s="30"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="26"/>
       <c r="I53" s="4"/>
       <c r="J53" s="36"/>
@@ -3936,7 +4016,7 @@
       <c r="D54" s="30"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
-      <c r="G54" s="66"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="26"/>
       <c r="I54" s="4"/>
       <c r="J54" s="36"/>
@@ -3961,7 +4041,7 @@
       <c r="D55" s="30"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
-      <c r="G55" s="66"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="26"/>
       <c r="I55" s="4"/>
       <c r="J55" s="36"/>
@@ -3986,7 +4066,7 @@
       <c r="D56" s="30"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
-      <c r="G56" s="66"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="26"/>
       <c r="I56" s="4"/>
       <c r="J56" s="36"/>
@@ -4011,7 +4091,7 @@
       <c r="D57" s="30"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26"/>
-      <c r="G57" s="66"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="26"/>
       <c r="I57" s="4"/>
       <c r="J57" s="36"/>
@@ -4034,7 +4114,7 @@
       <c r="D58" s="30"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26"/>
-      <c r="G58" s="66"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="26"/>
       <c r="I58" s="4"/>
       <c r="J58" s="36"/>
@@ -4057,7 +4137,7 @@
       <c r="D59" s="30"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
-      <c r="G59" s="66"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="26"/>
       <c r="I59" s="4"/>
       <c r="J59" s="36"/>
@@ -4080,7 +4160,7 @@
       <c r="D60" s="30"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="26"/>
       <c r="I60" s="4"/>
       <c r="J60" s="36"/>
@@ -4103,7 +4183,7 @@
       <c r="D61" s="30"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26"/>
-      <c r="G61" s="66"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="26"/>
       <c r="I61" s="4"/>
       <c r="J61" s="36"/>
@@ -4126,7 +4206,7 @@
       <c r="D62" s="30"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
-      <c r="G62" s="66"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="26"/>
       <c r="I62" s="4"/>
       <c r="J62" s="36"/>
@@ -4149,7 +4229,7 @@
       <c r="D63" s="30"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
-      <c r="G63" s="66"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="26"/>
       <c r="I63" s="4"/>
       <c r="J63" s="36"/>
@@ -4172,7 +4252,7 @@
       <c r="D64" s="30"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="66"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="26"/>
       <c r="I64" s="4"/>
       <c r="J64" s="36"/>
@@ -4195,7 +4275,7 @@
       <c r="D65" s="30"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26"/>
-      <c r="G65" s="66"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="26"/>
       <c r="I65" s="4"/>
       <c r="J65" s="36"/>
@@ -4218,7 +4298,7 @@
       <c r="D66" s="30"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
-      <c r="G66" s="66"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="26"/>
       <c r="I66" s="4"/>
       <c r="J66" s="36"/>
@@ -4241,7 +4321,7 @@
       <c r="D67" s="30"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
-      <c r="G67" s="66"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="26"/>
       <c r="I67" s="4"/>
       <c r="J67" s="36"/>
@@ -4264,7 +4344,7 @@
       <c r="D68" s="30"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
-      <c r="G68" s="66"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="26"/>
       <c r="I68" s="4"/>
       <c r="J68" s="36"/>
@@ -4287,7 +4367,7 @@
       <c r="D69" s="30"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="66"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="26"/>
       <c r="I69" s="4"/>
       <c r="J69" s="36"/>
@@ -4666,12 +4746,6 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4686,11 +4760,14 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V30">
-      <formula1>$C$39:$D$39</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X56">
       <formula1>$A$79:$A$168</formula1>
     </dataValidation>

--- a/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_05_CO\ESCALETA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,39 +398,12 @@
     <t>Sistema de ecuaciones lineales</t>
   </si>
   <si>
-    <t>Función lineal</t>
-  </si>
-  <si>
-    <t>Pendiente de la recta</t>
-  </si>
-  <si>
-    <t>Ecuación de la recta cuando se conocen dos puntos</t>
-  </si>
-  <si>
-    <t>Ecuación de la recta</t>
-  </si>
-  <si>
-    <t>Función lineal y afín</t>
-  </si>
-  <si>
     <t>¿Qué recuerdas de las funciones?</t>
   </si>
   <si>
     <t xml:space="preserve">Relaciona la representación gráfica de una función lineal con su fórmula </t>
   </si>
   <si>
-    <t>Reconce rectas paralelas y perpendiculares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Resuelve situaciones aplicando el concepto de función</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las funciones lineales y  afines</t>
-  </si>
-  <si>
-    <t>El método gráfico</t>
-  </si>
-  <si>
     <t>Soluciona sistemas de ecuaciones lineales con Geogebra</t>
   </si>
   <si>
@@ -440,54 +413,21 @@
     <t>Resuelve sistemas de ecuaciones lineales por el método de igualación</t>
   </si>
   <si>
-    <t>Resuelve sistemas de ecuaciones lineales por el método de suma y resta</t>
-  </si>
-  <si>
-    <t>Determinantes</t>
-  </si>
-  <si>
-    <t>Regla de Cramer</t>
-  </si>
-  <si>
-    <t>Resuelve  problemas con sistemas de ecuaciones lineales</t>
-  </si>
-  <si>
-    <t>Sistemas de ecuaciones 3x3</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Sistemas de ecuaciones lineales</t>
   </si>
   <si>
-    <t>Desigualdades</t>
-  </si>
-  <si>
     <t>Solución gráfica de desigualdades</t>
   </si>
   <si>
     <t>Resuelve desigualdades lineales</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Desigualdades con dos incógnitas</t>
-  </si>
-  <si>
-    <t>Competencias: sistemas de ecuaciones lineales en la literatura</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Interactivo que permite recordar el concepto de dependencia lineal</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la pendiente de la recta en la ecuación</t>
-  </si>
-  <si>
     <t>Actividad para hallar la ecuación de la recta que pasa por dos puntos</t>
   </si>
   <si>
-    <t>Actividad para hallar la ecuación explicita de la recta</t>
-  </si>
-  <si>
     <t>Interactivo que muestra las características de la funciones lineal y afín</t>
   </si>
   <si>
@@ -503,64 +443,22 @@
     <t>Actividad para resolver situaciones problema que involucran funciones lineales</t>
   </si>
   <si>
-    <t>Actividad para reforzar el concepto de función lineal</t>
-  </si>
-  <si>
-    <t>Interactivo que permite identificar la solución de un sistema de ecuaciones por el método gráfico</t>
-  </si>
-  <si>
     <t>Actividad para aplicar el programa Geogebra en la solución de sistemas de ecuaciones</t>
   </si>
   <si>
-    <t>Actividad para practicar la solución de sistemas de ecuaciones lineales por el método de sustitución</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la solución de sistemas de ecuaciones lineales por el método de igualación</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la solución de sistemas de ecuaciones lineales por el método de suma y resta</t>
-  </si>
-  <si>
     <t>Actividad para practicar la solución de determinantes</t>
   </si>
   <si>
     <t>Actividad para practicar la solución de sistemas de ecuaciones utilizando determinantes</t>
   </si>
   <si>
-    <t>Actividad para solucionar situaciones problema en las cuales intervienen sistemas de ecuaciones lineales</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la solución de sistemas de ecuaciones lineales 3x3</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar la solución de sistemas de ecuaciones lineales</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra ejemplos para recordar la solución de desigualdades</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la solución gráfica de desigualdades con dos incógnitas</t>
-  </si>
-  <si>
     <t>Actividad para practicar la solución de desigualdades lineales</t>
   </si>
   <si>
-    <t>Actividad para practicar la solución de sistemas de desigualdades con mas de dos ecuaciones</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar el tema desigualdades con dos incógnitas</t>
-  </si>
-  <si>
-    <t>Actividad en la que se evidencia la aplicación de los sistemas en contextos de literatura matemática</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema Sistemas de ecuaciones lineales</t>
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre el tema Sistemas de ecuaciones lineales</t>
-  </si>
-  <si>
-    <t>Sstemas de desigualdades lineales con más de dos ecuaciones</t>
   </si>
   <si>
     <t>Las funciones lineales y las funciones afines</t>
@@ -804,6 +702,108 @@
   </si>
   <si>
     <t>Adriana Lasprilla</t>
+  </si>
+  <si>
+    <t>La función lineal</t>
+  </si>
+  <si>
+    <t>Interactivo para explicar el concepto de dependencia lineal</t>
+  </si>
+  <si>
+    <t>Identifica la pendiente de la recta</t>
+  </si>
+  <si>
+    <t>Calcula la ecuación de la recta</t>
+  </si>
+  <si>
+    <t>Actividad para calcular la ecuación explícita de la recta</t>
+  </si>
+  <si>
+    <t>Las funciones lineal y afín</t>
+  </si>
+  <si>
+    <t>Reconoce rectas paralelas y perpendiculares</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones aplicando el concepto de función</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Las funciones lineales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad sobre Las funciones lineales </t>
+  </si>
+  <si>
+    <t>Interactivo para explicar cómo se soluciona un sistema de ecuaciones por el método gráfico</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar sistemas de ecuaciones lineales por el método de sustitución</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar sistemas de ecuaciones lineales por el método de igualación</t>
+  </si>
+  <si>
+    <t>Resuelve sistemas de ecuaciones lineales por el método de adición y sustracción</t>
+  </si>
+  <si>
+    <t>Soluciona determinantes</t>
+  </si>
+  <si>
+    <t>Soluciona sistemas de ecuaciones utilizando la regla de Cramer</t>
+  </si>
+  <si>
+    <t>El método gráfico para solucionar sistemas de ecuaciones 2 × 2</t>
+  </si>
+  <si>
+    <t>Actividad para practicar la solución de sistemas de ecuaciones lineales por el método de adición y sustracción</t>
+  </si>
+  <si>
+    <t>Resuelve problemas que involucran sistemas de ecuaciones lineales</t>
+  </si>
+  <si>
+    <t>Actividad para resolver situaciones problema que involucran sistemas de ecuaciones lineales</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar sistemas de ecuaciones 3 × 3</t>
+  </si>
+  <si>
+    <t>Soluciona sistemas de ecuaciones lineales 3 × 3</t>
+  </si>
+  <si>
+    <t>Actividad sobre Sistemas de ecuaciones lineales</t>
+  </si>
+  <si>
+    <t>Las desigualdades</t>
+  </si>
+  <si>
+    <t>Interactivo para explicar la solución de desigualdades</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar de forma gráfica desigualdades con dos incógnitas</t>
+  </si>
+  <si>
+    <t>Soluciona sistemas de desigualdades lineales con más de dos ecuaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Las desigualdades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad sobre el tema Las desigualdades </t>
+  </si>
+  <si>
+    <t>Actividad de aplicación de los sistemas de ecuaciones en contextos de literatura matemática</t>
+  </si>
+  <si>
+    <t>Competencias: resolución de sistemas de ecuaciones lineales en la literatura</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar sistemas de desigualdades lineales con mas de dos ecuaciones</t>
+  </si>
+  <si>
+    <t>Halla la ecuación de la recta que pasa por dos puntos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar la pendiente de una recta a partir de la ecuación</t>
   </si>
 </sst>
 </file>
@@ -1505,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,12 +1639,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
       <c r="G3" s="39" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>19</v>
@@ -1664,28 +1664,28 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="20" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
@@ -1701,21 +1701,21 @@
         <v>123</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
       <c r="G4" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="27">
+        <v>227</v>
+      </c>
+      <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -1728,7 +1728,7 @@
         <v>118</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>19</v>
@@ -1737,19 +1737,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S4" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
@@ -1765,12 +1765,12 @@
         <v>123</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
       <c r="G5" s="40" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1792,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>19</v>
@@ -1801,19 +1801,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S5" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
@@ -1829,21 +1829,21 @@
         <v>123</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="27">
+        <v>228</v>
+      </c>
+      <c r="H6" s="11">
         <v>4</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -1853,10 +1853,10 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>20</v>
@@ -1865,19 +1865,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
@@ -1893,12 +1893,12 @@
         <v>123</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="40" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -1907,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="20" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>20</v>
@@ -1929,19 +1929,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -1957,21 +1957,21 @@
         <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
       <c r="G8" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="27">
+        <v>124</v>
+      </c>
+      <c r="H8" s="11">
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
@@ -1986,22 +1986,22 @@
         <v>19</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -2017,12 +2017,12 @@
         <v>123</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
@@ -2031,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
@@ -2042,28 +2042,28 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="20" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
@@ -2079,21 +2079,21 @@
         <v>123</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
       <c r="G10" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="27">
+        <v>231</v>
+      </c>
+      <c r="H10" s="11">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2106,7 +2106,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>19</v>
@@ -2115,19 +2115,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S10" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="T10" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -2143,12 +2143,12 @@
         <v>123</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="40" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>20</v>
@@ -2170,7 +2170,7 @@
         <v>36</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>19</v>
@@ -2179,19 +2179,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S11" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="T11" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
@@ -2207,23 +2207,23 @@
         <v>123</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="27">
+        <v>233</v>
+      </c>
+      <c r="H12" s="11">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>19</v>
@@ -2234,28 +2234,28 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="20" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -2271,12 +2271,12 @@
         <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="40" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -2285,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="20" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>19</v>
@@ -2307,19 +2307,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="U13" s="24" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
@@ -2335,21 +2335,21 @@
         <v>123</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="27">
+        <v>126</v>
+      </c>
+      <c r="H14" s="11">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -2362,7 +2362,7 @@
         <v>120</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>19</v>
@@ -2371,19 +2371,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="U14" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -2399,12 +2399,12 @@
         <v>123</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
       <c r="G15" s="40" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2413,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -2426,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>19</v>
@@ -2435,19 +2435,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="U15" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -2463,21 +2463,21 @@
         <v>123</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="27">
+        <v>128</v>
+      </c>
+      <c r="H16" s="11">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -2490,7 +2490,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
@@ -2499,19 +2499,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -2527,12 +2527,12 @@
         <v>123</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="40" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2541,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -2554,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>19</v>
@@ -2563,19 +2563,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="U17" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -2591,21 +2591,21 @@
         <v>123</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="27">
+        <v>239</v>
+      </c>
+      <c r="H18" s="11">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2618,7 +2618,7 @@
         <v>29</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>19</v>
@@ -2627,19 +2627,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T18" s="38" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="U18" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -2655,12 +2655,12 @@
         <v>123</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="40" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2669,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
@@ -2682,7 +2682,7 @@
         <v>39</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>19</v>
@@ -2691,19 +2691,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S19" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="U19" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -2719,21 +2719,21 @@
         <v>123</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="27">
+        <v>243</v>
+      </c>
+      <c r="H20" s="11">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>19</v>
@@ -2755,19 +2755,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -2783,12 +2783,12 @@
         <v>123</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="40" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2797,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
@@ -2810,7 +2810,7 @@
         <v>33</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -2819,19 +2819,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T21" s="38" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="U21" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -2847,23 +2847,23 @@
         <v>123</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="27">
+        <v>129</v>
+      </c>
+      <c r="H22" s="11">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2876,7 +2876,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>19</v>
@@ -2885,19 +2885,19 @@
         <v>6</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
@@ -2913,12 +2913,12 @@
         <v>123</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="40" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2927,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="20" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>20</v>
@@ -2949,19 +2949,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="S23" s="24" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -2977,21 +2977,21 @@
         <v>123</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
       <c r="G24" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="27">
+        <v>130</v>
+      </c>
+      <c r="H24" s="11">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -3004,7 +3004,7 @@
         <v>29</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>19</v>
@@ -3013,19 +3013,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="U24" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -3041,12 +3041,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="40" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
@@ -3068,7 +3068,7 @@
         <v>118</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>19</v>
@@ -3077,19 +3077,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S25" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="U25" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
@@ -3105,21 +3105,21 @@
         <v>123</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="27">
+        <v>251</v>
+      </c>
+      <c r="H26" s="11">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3132,7 +3132,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>19</v>
@@ -3141,19 +3141,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S26" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T26" s="38" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="U26" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V26" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
@@ -3169,14 +3169,14 @@
         <v>123</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="40" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3185,7 +3185,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3198,7 +3198,7 @@
         <v>121</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
@@ -3207,19 +3207,19 @@
         <v>6</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S27" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T27" s="38" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -3235,12 +3235,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="40" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -3249,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -3262,7 +3262,7 @@
         <v>120</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>19</v>
@@ -3271,19 +3271,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T28" s="38" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="U28" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -3299,7 +3299,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>10</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="29" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -3324,7 +3324,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="20" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>19</v>
@@ -3348,14 +3348,14 @@
         <v>123</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="40" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -3364,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -3377,7 +3377,7 @@
         <v>33</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>19</v>
@@ -3386,19 +3386,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S30" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="U30" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
@@ -3414,7 +3414,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26"/>
@@ -3442,19 +3442,19 @@
         <v>6</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="T31" s="38" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="U31" s="24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>

--- a/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/ESCALETA_MA_09_05_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_05_CO\ESCALETA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristhianAndres\Documents\Github\Matematicas\fuentes\contenidos\grado09\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -722,9 +722,6 @@
     <t>Las funciones lineal y afín</t>
   </si>
   <si>
-    <t>Reconoce rectas paralelas y perpendiculares</t>
-  </si>
-  <si>
     <t>Resuelve situaciones aplicando el concepto de función</t>
   </si>
   <si>
@@ -804,6 +801,9 @@
   </si>
   <si>
     <t>Actividad para identificar la pendiente de una recta a partir de la ecuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconoce algebraicamente las relaciones entre rectas </t>
   </si>
 </sst>
 </file>
@@ -1505,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -1770,7 +1770,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
       <c r="G5" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -2084,7 +2084,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
       <c r="G10" s="40" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
@@ -2148,7 +2148,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
@@ -2223,7 +2223,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>19</v>
@@ -2276,7 +2276,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -2285,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2413,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -2477,7 +2477,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -2532,7 +2532,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2541,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -2596,7 +2596,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
@@ -2660,7 +2660,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2724,7 +2724,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="11">
         <v>18</v>
@@ -2733,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -2788,7 +2788,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2797,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2918,7 +2918,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2927,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -2991,7 +2991,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -3110,7 +3110,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H26" s="11">
         <v>24</v>
@@ -3119,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3185,7 +3185,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3240,7 +3240,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -3249,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
